--- a/Projects/SINOPAC_LOCAL/Data/Template.xlsx
+++ b/Projects/SINOPAC_LOCAL/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="43">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -105,7 +105,7 @@
     <t xml:space="preserve">distributor</t>
   </si>
   <si>
-    <t xml:space="preserve">SinoPac</t>
+    <t xml:space="preserve">Smirnoff</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer</t>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">store</t>
   </si>
   <si>
-    <t xml:space="preserve">off premise, on premise</t>
+    <t xml:space="preserve">On Trade,Off Trade,Hybrid Off</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">ean_codes_to_include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed Rail(On Premise)</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,6 +440,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,10 +457,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,10 +497,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,13 +669,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.6479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,24 +790,24 @@
   </sheetPr>
   <dimension ref="A1:AMH9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topRight" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="13" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="13" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="13" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="13" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="13" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="13" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="13" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="13" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,22 +1873,22 @@
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="23" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="0"/>
@@ -2903,32 +2901,32 @@
       <c r="AMH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="25"/>
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="0"/>
@@ -3947,7 +3945,7 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -3955,20 +3953,20 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="25"/>
       <c r="I4" s="26"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="0"/>
@@ -5007,10 +5005,10 @@
       <c r="L5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5027,33 +5025,33 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -5061,31 +5059,31 @@
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
       <c r="J7" s="27"/>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -5095,25 +5093,25 @@
         <v>31</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="25"/>
       <c r="I8" s="26"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -5141,10 +5139,10 @@
       <c r="L9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5166,73 +5164,75 @@
   </sheetPr>
   <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="41" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="40" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="40" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="22.1632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="39" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="39" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="39" width="10.2602040816327"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="44" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47" t="n">
+      <c r="B2" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="n">
+      <c r="C2" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="n">
+      <c r="D2" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="47" t="n">
+      <c r="E2" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="F2" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -6250,158 +6250,172 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="49" t="n">
+      <c r="B3" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="49" t="n">
+      <c r="C3" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="49" t="n">
+      <c r="D3" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="49" t="n">
+      <c r="E3" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="F3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49" t="n">
+      <c r="B4" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="49" t="n">
+      <c r="C4" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="49" t="n">
+      <c r="D4" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="49" t="n">
+      <c r="E4" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="F4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="49" t="n">
+      <c r="B5" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="n">
+      <c r="C5" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="49" t="n">
+      <c r="D5" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="49" t="n">
+      <c r="E5" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="F5" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="49" t="n">
+      <c r="B6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="49" t="n">
+      <c r="C6" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="49" t="n">
+      <c r="D6" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="49" t="n">
+      <c r="E6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49" t="n">
+      <c r="B7" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="49" t="n">
+      <c r="C7" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="49" t="n">
+      <c r="D7" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="49" t="n">
+      <c r="E7" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="F7" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="49" t="n">
+      <c r="B8" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="49" t="n">
+      <c r="C8" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="49" t="n">
+      <c r="D8" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="49" t="n">
+      <c r="E8" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="F8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="n">
+      <c r="B9" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="49" t="n">
+      <c r="C9" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="49" t="n">
+      <c r="D9" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="49" t="n">
+      <c r="E9" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="56"/>
+      <c r="F9" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="55"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
